--- a/outcome/appendix/data/PHSMs/Syphilis.xlsx
+++ b/outcome/appendix/data/PHSMs/Syphilis.xlsx
@@ -409,13 +409,13 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>49783.0857877535</v>
+        <v>49786.7990558374</v>
       </c>
       <c r="C2" t="n">
-        <v>45685.9621892265</v>
+        <v>45711.6194378663</v>
       </c>
       <c r="D2" t="n">
-        <v>44306.1584666347</v>
+        <v>44337.3530751073</v>
       </c>
       <c r="E2" t="n">
         <v>53260.6375079063</v>
@@ -435,13 +435,13 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>44214.4577744455</v>
+        <v>44251.3712780779</v>
       </c>
       <c r="C3" t="n">
-        <v>37162.0098389737</v>
+        <v>37307.5740156974</v>
       </c>
       <c r="D3" t="n">
-        <v>35358.0574834199</v>
+        <v>35560.0973047606</v>
       </c>
       <c r="E3" t="n">
         <v>49385.9537008084</v>
@@ -461,13 +461,13 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>55793.7807866781</v>
+        <v>55811.4207490076</v>
       </c>
       <c r="C4" t="n">
-        <v>49519.0952580318</v>
+        <v>49471.1118778056</v>
       </c>
       <c r="D4" t="n">
-        <v>47756.0295116401</v>
+        <v>47829.6022920177</v>
       </c>
       <c r="E4" t="n">
         <v>60319.3137118115</v>
@@ -487,13 +487,13 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>54605.7585408552</v>
+        <v>54567.7742118682</v>
       </c>
       <c r="C5" t="n">
-        <v>50341.0698026935</v>
+        <v>50176.7483577622</v>
       </c>
       <c r="D5" t="n">
-        <v>48591.5310226499</v>
+        <v>48440.6552700163</v>
       </c>
       <c r="E5" t="n">
         <v>58572.6473345567</v>
@@ -513,13 +513,13 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>57264.0031956957</v>
+        <v>57271.6487779814</v>
       </c>
       <c r="C6" t="n">
-        <v>51546.2026244595</v>
+        <v>51590.6534965843</v>
       </c>
       <c r="D6" t="n">
-        <v>49840.816350027</v>
+        <v>49916.9461844543</v>
       </c>
       <c r="E6" t="n">
         <v>61933.4949498433</v>
@@ -539,13 +539,13 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>55607.8103638754</v>
+        <v>55610.5420647853</v>
       </c>
       <c r="C7" t="n">
-        <v>49913.4338793165</v>
+        <v>49961.372035684</v>
       </c>
       <c r="D7" t="n">
-        <v>48336.3707597824</v>
+        <v>48396.0330136927</v>
       </c>
       <c r="E7" t="n">
         <v>60435.5468252697</v>
@@ -565,13 +565,13 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>58716.3232263889</v>
+        <v>58744.9752755385</v>
       </c>
       <c r="C8" t="n">
-        <v>54447.2666249319</v>
+        <v>54604.9504991506</v>
       </c>
       <c r="D8" t="n">
-        <v>53022.9617805396</v>
+        <v>53060.8231309107</v>
       </c>
       <c r="E8" t="n">
         <v>63555.8132612877</v>
@@ -591,13 +591,13 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>58676.6723115683</v>
+        <v>58742.0372146643</v>
       </c>
       <c r="C9" t="n">
-        <v>53855.2608212501</v>
+        <v>54048.9759488427</v>
       </c>
       <c r="D9" t="n">
-        <v>52248.5991502148</v>
+        <v>52523.8786666918</v>
       </c>
       <c r="E9" t="n">
         <v>63973.9116333779</v>
@@ -617,7 +617,7 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>56662.9478635784</v>
+        <v>56711.8067502739</v>
       </c>
       <c r="C10" t="n">
         <v>52574.6203627444</v>
@@ -643,7 +643,7 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>56264.9031639359</v>
+        <v>56318.2355724638</v>
       </c>
       <c r="C11" t="n">
         <v>51682.8266261237</v>
@@ -669,7 +669,7 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>55519.1813439184</v>
+        <v>55563.1433534527</v>
       </c>
       <c r="C12" t="n">
         <v>50859.6509283663</v>
@@ -695,7 +695,7 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>54006.2918588629</v>
+        <v>54047.678136563</v>
       </c>
       <c r="C13" t="n">
         <v>48677.2760078207</v>
@@ -721,7 +721,7 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>55344.6547959321</v>
+        <v>55379.9871781391</v>
       </c>
       <c r="C14" t="n">
         <v>50239.1232325317</v>
@@ -747,13 +747,13 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>50284.1966171332</v>
+        <v>50377.1693284984</v>
       </c>
       <c r="C15" t="n">
-        <v>43199.3492986635</v>
+        <v>43710.2721726434</v>
       </c>
       <c r="D15" t="n">
-        <v>40935.1653310936</v>
+        <v>41511.6913095499</v>
       </c>
       <c r="E15" t="n">
         <v>57680.7143389952</v>
@@ -773,13 +773,13 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>60820.3842632503</v>
+        <v>60846.6216701412</v>
       </c>
       <c r="C16" t="n">
-        <v>52099.3664060722</v>
+        <v>52195.0306440365</v>
       </c>
       <c r="D16" t="n">
-        <v>50068.7918760539</v>
+        <v>50076.1315268261</v>
       </c>
       <c r="E16" t="n">
         <v>69567.1731407434</v>
@@ -799,13 +799,13 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>59501.3299431407</v>
+        <v>59511.9131013956</v>
       </c>
       <c r="C17" t="n">
-        <v>52349.4536484235</v>
+        <v>52403.9913505294</v>
       </c>
       <c r="D17" t="n">
-        <v>50387.3613307785</v>
+        <v>50331.7359902917</v>
       </c>
       <c r="E17" t="n">
         <v>68025.8041105769</v>
@@ -825,13 +825,13 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>62149.1363554999</v>
+        <v>62191.7349377504</v>
       </c>
       <c r="C18" t="n">
-        <v>53696.0050131927</v>
+        <v>53913.9626073537</v>
       </c>
       <c r="D18" t="n">
-        <v>51853.2254275906</v>
+        <v>52059.8081340917</v>
       </c>
       <c r="E18" t="n">
         <v>71589.4779390442</v>
@@ -851,13 +851,13 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>60730.3022887336</v>
+        <v>60768.3213437616</v>
       </c>
       <c r="C19" t="n">
-        <v>53266.4833875204</v>
+        <v>53463.6577122664</v>
       </c>
       <c r="D19" t="n">
-        <v>51291.7947295175</v>
+        <v>51459.0412138872</v>
       </c>
       <c r="E19" t="n">
         <v>70290.8427794996</v>
@@ -877,13 +877,13 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>63319.0814022339</v>
+        <v>63392.854236463</v>
       </c>
       <c r="C20" t="n">
-        <v>55523.2934356337</v>
+        <v>55833.8627347537</v>
       </c>
       <c r="D20" t="n">
-        <v>54166.6466875629</v>
+        <v>54437.2549348072</v>
       </c>
       <c r="E20" t="n">
         <v>73606.1624666125</v>
@@ -903,13 +903,13 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>63355.6523817874</v>
+        <v>63468.4733965303</v>
       </c>
       <c r="C21" t="n">
-        <v>55287.0172376708</v>
+        <v>55726.7879535307</v>
       </c>
       <c r="D21" t="n">
-        <v>53247.3701803698</v>
+        <v>53701.3916524779</v>
       </c>
       <c r="E21" t="n">
         <v>74214.570903335</v>
@@ -929,7 +929,7 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>61487.3985435063</v>
+        <v>61588.2881700058</v>
       </c>
       <c r="C22" t="n">
         <v>54638.9125189098</v>
@@ -955,7 +955,7 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>61122.3366206195</v>
+        <v>61230.3076557399</v>
       </c>
       <c r="C23" t="n">
         <v>53739.5420462284</v>
@@ -981,7 +981,7 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>60472.7417813158</v>
+        <v>60573.297185182</v>
       </c>
       <c r="C24" t="n">
         <v>52908.0457478286</v>
@@ -1007,7 +1007,7 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>59093.6137093273</v>
+        <v>59192.0097255001</v>
       </c>
       <c r="C25" t="n">
         <v>50716.7488800017</v>
@@ -1033,7 +1033,7 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>60452.7480673234</v>
+        <v>60543.7138746028</v>
       </c>
       <c r="C26" t="n">
         <v>52300.8557629942</v>
@@ -1059,7 +1059,7 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>56139.8921569429</v>
+        <v>56259.1458209155</v>
       </c>
       <c r="C27" t="n">
         <v>46661.8292419071</v>
@@ -1085,13 +1085,13 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>65622.6887539763</v>
+        <v>65705.9864849422</v>
       </c>
       <c r="C28" t="n">
-        <v>54527.8599409026</v>
+        <v>54866.0948469836</v>
       </c>
       <c r="D28" t="n">
-        <v>52697.0491449314</v>
+        <v>53080.8207353921</v>
       </c>
       <c r="E28" t="n">
         <v>81003.0597325326</v>
@@ -1111,10 +1111,10 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>64238.7878762204</v>
+        <v>64334.1057696732</v>
       </c>
       <c r="C29" t="n">
-        <v>54143.9736008815</v>
+        <v>54448.1313587708</v>
       </c>
       <c r="D29" t="n">
         <v>50773.8394089413</v>
@@ -1137,10 +1137,10 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>66808.5755002451</v>
+        <v>66903.9791264125</v>
       </c>
       <c r="C30" t="n">
-        <v>55285.0608720193</v>
+        <v>55767.3947820355</v>
       </c>
       <c r="D30" t="n">
         <v>53252.2278087044</v>
@@ -1163,10 +1163,10 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>65503.2530657211</v>
+        <v>65597.561444877</v>
       </c>
       <c r="C31" t="n">
-        <v>55251.2997237889</v>
+        <v>55632.6503111767</v>
       </c>
       <c r="D31" t="n">
         <v>50837.1682451915</v>
@@ -1189,10 +1189,10 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>67816.6232215546</v>
+        <v>67939.4619071015</v>
       </c>
       <c r="C32" t="n">
-        <v>56510.3466317839</v>
+        <v>57051.2645570602</v>
       </c>
       <c r="D32" t="n">
         <v>53005.5438100203</v>
@@ -1215,10 +1215,10 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>67883.0844143404</v>
+        <v>68036.1781247012</v>
       </c>
       <c r="C33" t="n">
-        <v>56262.0770376319</v>
+        <v>56880.3998519374</v>
       </c>
       <c r="D33" t="n">
         <v>52437.0583057454</v>
@@ -1241,7 +1241,7 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>66051.0452695626</v>
+        <v>66199.8169031817</v>
       </c>
       <c r="C34" t="n">
         <v>56554.7382166383</v>
@@ -1267,7 +1267,7 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>65708.4359129748</v>
+        <v>65864.0721345294</v>
       </c>
       <c r="C35" t="n">
         <v>55623.305158641</v>
@@ -1293,7 +1293,7 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>65110.4484055908</v>
+        <v>65261.9061617041</v>
       </c>
       <c r="C36" t="n">
         <v>54484.0444289085</v>

--- a/outcome/appendix/data/PHSMs/Syphilis.xlsx
+++ b/outcome/appendix/data/PHSMs/Syphilis.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t xml:space="preserve">date</t>
   </si>
@@ -38,7 +38,16 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">diff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">color</t>
+  </si>
+  <si>
     <t xml:space="preserve">梅毒</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decrease</t>
   </si>
 </sst>
 </file>
@@ -403,6 +412,12 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -424,10 +439,16 @@
         <v>55050.5295408356</v>
       </c>
       <c r="G2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H2" t="n">
         <v>39671</v>
+      </c>
+      <c r="I2" t="n">
+        <v>10115.7990558374</v>
+      </c>
+      <c r="J2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -450,10 +471,16 @@
         <v>50752.4333289844</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3" t="n">
         <v>21448</v>
+      </c>
+      <c r="I3" t="n">
+        <v>22803.3712780779</v>
+      </c>
+      <c r="J3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="4">
@@ -476,10 +503,16 @@
         <v>62209.3981962628</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H4" t="n">
         <v>41154</v>
+      </c>
+      <c r="I4" t="n">
+        <v>14657.4207490076</v>
+      </c>
+      <c r="J4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -502,10 +535,16 @@
         <v>60525.4252958523</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H5" t="n">
         <v>46728</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7839.77421186818</v>
+      </c>
+      <c r="J5" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -528,10 +567,16 @@
         <v>63958.0477346346</v>
       </c>
       <c r="G6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H6" t="n">
         <v>46753</v>
+      </c>
+      <c r="I6" t="n">
+        <v>10518.6487779814</v>
+      </c>
+      <c r="J6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -554,10 +599,16 @@
         <v>62541.2751337181</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
         <v>46538</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9072.54206478534</v>
+      </c>
+      <c r="J7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8">
@@ -580,10 +631,16 @@
         <v>65752.2955954528</v>
       </c>
       <c r="G8" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H8" t="n">
         <v>46838</v>
+      </c>
+      <c r="I8" t="n">
+        <v>11906.9752755385</v>
+      </c>
+      <c r="J8" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="9">
@@ -606,10 +663,16 @@
         <v>66270.7807443269</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H9" t="n">
         <v>50386</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8356.03721466427</v>
+      </c>
+      <c r="J9" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
@@ -632,10 +695,16 @@
         <v>64132.9125501867</v>
       </c>
       <c r="G10" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H10" t="n">
         <v>48965</v>
+      </c>
+      <c r="I10" t="n">
+        <v>7746.80675027386</v>
+      </c>
+      <c r="J10" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +727,16 @@
         <v>64088.8596696233</v>
       </c>
       <c r="G11" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>44438</v>
+      </c>
+      <c r="I11" t="n">
+        <v>11880.2355724638</v>
+      </c>
+      <c r="J11" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12">
@@ -684,10 +759,16 @@
         <v>63874.2459716265</v>
       </c>
       <c r="G12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H12" t="n">
         <v>45305</v>
+      </c>
+      <c r="I12" t="n">
+        <v>10258.1433534527</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="13">
@@ -710,10 +791,16 @@
         <v>62659.0064730337</v>
       </c>
       <c r="G13" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H13" t="n">
         <v>44696</v>
+      </c>
+      <c r="I13" t="n">
+        <v>9351.67813656301</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="14">
@@ -736,10 +823,16 @@
         <v>65035.4922279178</v>
       </c>
       <c r="G14" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H14" t="n">
         <v>40079</v>
+      </c>
+      <c r="I14" t="n">
+        <v>15300.9871781391</v>
+      </c>
+      <c r="J14" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="15">
@@ -762,10 +855,16 @@
         <v>60637.1406613942</v>
       </c>
       <c r="G15" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H15" t="n">
         <v>33615</v>
+      </c>
+      <c r="I15" t="n">
+        <v>16762.1693284984</v>
+      </c>
+      <c r="J15" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16">
@@ -788,10 +887,16 @@
         <v>72824.8600195439</v>
       </c>
       <c r="G16" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H16" t="n">
         <v>50682</v>
+      </c>
+      <c r="I16" t="n">
+        <v>10164.6216701412</v>
+      </c>
+      <c r="J16" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -814,10 +919,16 @@
         <v>71454.8623170364</v>
       </c>
       <c r="G17" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H17" t="n">
         <v>49113</v>
+      </c>
+      <c r="I17" t="n">
+        <v>10398.9131013956</v>
+      </c>
+      <c r="J17" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="18">
@@ -840,10 +951,16 @@
         <v>75197.6806805421</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H18" t="n">
         <v>47999</v>
+      </c>
+      <c r="I18" t="n">
+        <v>14192.7349377504</v>
+      </c>
+      <c r="J18" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19">
@@ -866,10 +983,16 @@
         <v>74085.7309549678</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H19" t="n">
         <v>47423</v>
+      </c>
+      <c r="I19" t="n">
+        <v>13345.3213437616</v>
+      </c>
+      <c r="J19" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="20">
@@ -892,10 +1015,16 @@
         <v>77595.0596217656</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H20" t="n">
         <v>51531</v>
+      </c>
+      <c r="I20" t="n">
+        <v>11861.854236463</v>
+      </c>
+      <c r="J20" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="21">
@@ -918,10 +1047,16 @@
         <v>78404.5988979985</v>
       </c>
       <c r="G21" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
         <v>46091</v>
+      </c>
+      <c r="I21" t="n">
+        <v>17377.4733965303</v>
+      </c>
+      <c r="J21" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="22">
@@ -944,10 +1079,16 @@
         <v>76550.1318147762</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22" t="n">
         <v>45792</v>
+      </c>
+      <c r="I22" t="n">
+        <v>15796.2881700058</v>
+      </c>
+      <c r="J22" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="23">
@@ -970,10 +1111,16 @@
         <v>76781.7027471866</v>
       </c>
       <c r="G23" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H23" t="n">
         <v>40900</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20330.3076557399</v>
+      </c>
+      <c r="J23" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
@@ -996,10 +1143,16 @@
         <v>76835.0222833937</v>
       </c>
       <c r="G24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H24" t="n">
         <v>42174</v>
+      </c>
+      <c r="I24" t="n">
+        <v>18399.297185182</v>
+      </c>
+      <c r="J24" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="25">
@@ -1022,10 +1175,16 @@
         <v>75880.2658735512</v>
       </c>
       <c r="G25" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H25" t="n">
         <v>42321</v>
+      </c>
+      <c r="I25" t="n">
+        <v>16871.0097255001</v>
+      </c>
+      <c r="J25" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26">
@@ -1048,10 +1207,16 @@
         <v>78510.1300577695</v>
       </c>
       <c r="G26" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H26" t="n">
         <v>39586</v>
+      </c>
+      <c r="I26" t="n">
+        <v>20957.7138746028</v>
+      </c>
+      <c r="J26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27">
@@ -1074,10 +1239,16 @@
         <v>74358.4634342635</v>
       </c>
       <c r="G27" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H27" t="n">
         <v>34683</v>
+      </c>
+      <c r="I27" t="n">
+        <v>21576.1458209155</v>
+      </c>
+      <c r="J27" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="28">
@@ -1100,10 +1271,16 @@
         <v>86786.620619787</v>
       </c>
       <c r="G28" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H28" t="n">
         <v>46978</v>
+      </c>
+      <c r="I28" t="n">
+        <v>18727.9864849422</v>
+      </c>
+      <c r="J28" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29">
@@ -1126,10 +1303,16 @@
         <v>85651.2725388889</v>
       </c>
       <c r="G29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H29" t="n">
         <v>39513</v>
+      </c>
+      <c r="I29" t="n">
+        <v>24821.1057696732</v>
+      </c>
+      <c r="J29" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="30">
@@ -1152,10 +1335,16 @@
         <v>89623.4076315584</v>
       </c>
       <c r="G30" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H30" t="n">
         <v>43751</v>
+      </c>
+      <c r="I30" t="n">
+        <v>23152.9791264125</v>
+      </c>
+      <c r="J30" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="31">
@@ -1178,10 +1367,16 @@
         <v>88735.8825171343</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H31" t="n">
         <v>48507</v>
+      </c>
+      <c r="I31" t="n">
+        <v>17090.561444877</v>
+      </c>
+      <c r="J31" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="32">
@@ -1204,10 +1399,16 @@
         <v>92465.16295334</v>
       </c>
       <c r="G32" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H32" t="n">
         <v>51391</v>
+      </c>
+      <c r="I32" t="n">
+        <v>16548.4619071015</v>
+      </c>
+      <c r="J32" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="33">
@@ -1230,10 +1431,16 @@
         <v>93490.5749309538</v>
       </c>
       <c r="G33" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H33" t="n">
         <v>50482</v>
+      </c>
+      <c r="I33" t="n">
+        <v>17554.1781247012</v>
+      </c>
+      <c r="J33" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="34">
@@ -1256,10 +1463,16 @@
         <v>91848.2678712901</v>
       </c>
       <c r="G34" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H34" t="n">
         <v>44470</v>
+      </c>
+      <c r="I34" t="n">
+        <v>21729.8169031817</v>
+      </c>
+      <c r="J34" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="35">
@@ -1282,10 +1495,16 @@
         <v>92288.6247510133</v>
       </c>
       <c r="G35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H35" t="n">
         <v>39054</v>
+      </c>
+      <c r="I35" t="n">
+        <v>26810.0721345294</v>
+      </c>
+      <c r="J35" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36">
@@ -1308,10 +1527,16 @@
         <v>92547.667552597</v>
       </c>
       <c r="G36" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H36" t="n">
         <v>35152</v>
+      </c>
+      <c r="I36" t="n">
+        <v>30109.9061617041</v>
+      </c>
+      <c r="J36" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
